--- a/Uni_Results/GPA.xlsx
+++ b/Uni_Results/GPA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\GitRepos\bimalka98\Uni_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t xml:space="preserve">Semester </t>
   </si>
@@ -198,13 +198,121 @@
   </si>
   <si>
     <t>CGPA</t>
+  </si>
+  <si>
+    <t>EE2093</t>
+  </si>
+  <si>
+    <t>Theory of Electricity</t>
+  </si>
+  <si>
+    <t>EN2013</t>
+  </si>
+  <si>
+    <t>Electronics - II</t>
+  </si>
+  <si>
+    <t>EN2030</t>
+  </si>
+  <si>
+    <t>Fundamentals of Computer Organization and Design</t>
+  </si>
+  <si>
+    <t>EN2040</t>
+  </si>
+  <si>
+    <t>Random Signals and Processes</t>
+  </si>
+  <si>
+    <t>EN2090</t>
+  </si>
+  <si>
+    <t>Laboratory Practice - II</t>
+  </si>
+  <si>
+    <t>EN2053</t>
+  </si>
+  <si>
+    <t>Communication Systems and Networks</t>
+  </si>
+  <si>
+    <t>MA2023</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>MA2013</t>
+  </si>
+  <si>
+    <t>Differential Equations</t>
+  </si>
+  <si>
+    <t>EN2532</t>
+  </si>
+  <si>
+    <t>Robot Design and Competition</t>
+  </si>
+  <si>
+    <t>EN2073</t>
+  </si>
+  <si>
+    <t>Analog and Digital Communications</t>
+  </si>
+  <si>
+    <t>EN2083</t>
+  </si>
+  <si>
+    <t>Electromagnetics</t>
+  </si>
+  <si>
+    <t>EN2110</t>
+  </si>
+  <si>
+    <t>Electronics - III</t>
+  </si>
+  <si>
+    <t>EN2570</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing</t>
+  </si>
+  <si>
+    <t>MA2033</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>EN2560</t>
+  </si>
+  <si>
+    <t>Internet of Things Design and Competition</t>
+  </si>
+  <si>
+    <t>EN2550</t>
+  </si>
+  <si>
+    <t>Fundamentals of Image Processing and Machine Vision</t>
+  </si>
+  <si>
+    <t>CS2022</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Semester4 GPA</t>
+  </si>
+  <si>
+    <t>Semester3 GPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,19 +322,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Adobe Heiti Std R"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="Adobe Heiti Std R"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +402,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -522,115 +643,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC8C8C8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC8C8C8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC8C8C8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC8C8C8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC8C8C8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC8C8C8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC8C8C8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC8C8C8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC8C8C8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC8C8C8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,699 +1088,1115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="15" max="16" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="17.77734375" style="5" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="5"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="8.88671875" style="5"/>
+    <col min="15" max="16" width="8.88671875" style="4"/>
+    <col min="17" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <v>4.2</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="10">
         <v>4</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="10">
         <v>3.7</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="10">
         <v>3.3</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>3</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="10">
         <v>2.7</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="10">
         <v>2</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="10">
         <v>1.5</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="12">
         <v>2.7</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="22">
+      <c r="I6" s="12"/>
+      <c r="J6" s="15">
         <f>D6*H6</f>
         <v>8.1000000000000014</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="35"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="22">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="21">
         <v>3.7</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J12" si="0">D7*H7</f>
         <v>11.100000000000001</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="25">
         <v>1</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="26">
         <v>15</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="27">
         <f>SUM(J6:J12)/D15</f>
         <v>3.4533333333333336</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="28">
         <f>M7*N7</f>
         <v>51.800000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="22">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="51" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="21">
         <v>4</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="25">
         <v>2</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="26">
         <v>17</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="27">
         <f>SUM(J19:J24)/D27</f>
         <v>3.5588235294117645</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="28">
         <f>M8*N8</f>
         <v>60.5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="51" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="29">
         <v>4</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="25">
         <v>3</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="34"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="22">
         <v>2</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="51" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="29">
         <v>4</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="25">
         <v>4</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="34"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="22">
         <v>2</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="51" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="29">
         <v>3.3</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="24">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="25">
         <v>5</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="34"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="29">
         <v>2</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="25">
         <v>6</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="34"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="24"/>
-      <c r="L13" s="37">
+      <c r="L13" s="25">
         <v>7</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="34"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="24"/>
-      <c r="L14" s="42">
+      <c r="L14" s="34">
         <v>8</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39">
         <f>SUM(D6:D12)</f>
         <v>15</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="39">
         <f>SUM(E6:E13)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="26"/>
-      <c r="L15" s="33" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="41"/>
+      <c r="L15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="22">
         <f>SUM(M7:M14)</f>
         <v>32</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="34">
+      <c r="N15" s="21"/>
+      <c r="O15" s="28">
         <f>SUM(O7:O14)</f>
         <v>112.30000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45">
         <f>SUM(D15:E15)</f>
         <v>16</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="29" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="48">
         <f>SUM(J6:J12)/D15</f>
         <v>3.4533333333333336</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="34"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="L17" s="45" t="s">
+      <c r="J17" s="50"/>
+      <c r="L17" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48">
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54">
         <f>O15/M15</f>
         <v>3.5093750000000004</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="13">
         <v>3</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="50" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="12">
         <v>3.3</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="22">
+      <c r="I19" s="12"/>
+      <c r="J19" s="15">
         <f>D19*H19</f>
         <v>9.8999999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="22">
         <v>3</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="51" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="21">
         <v>3</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="24">
         <f>D20*H20</f>
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="22">
         <v>3</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="51" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="21">
         <v>3.7</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="24">
         <f t="shared" ref="J21:J22" si="1">D21*H21</f>
         <v>11.100000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="22">
         <v>3</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="51" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="29">
         <v>3.3</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="24">
         <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="22">
         <v>3</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="51" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="29">
         <v>4.2</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="24">
         <f>D23*H23</f>
         <v>12.600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="22">
         <v>2</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="51" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="29">
         <v>4</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="24">
         <f>D24*H24</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22">
         <v>3</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39">
         <f>SUM(D19:D24)</f>
         <v>17</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="39">
         <f>SUM(E19:E25)</f>
         <v>3</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="26"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45">
         <f>SUM(D27:E27)</f>
         <v>20</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="29" t="s">
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="48">
         <f>SUM(J19:J24)/D27</f>
         <v>3.5588235294117645</v>
       </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="55">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="57">
+        <v>3</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="57">
+        <v>3</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="57">
+        <v>2</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="56"/>
+      <c r="B35" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="57">
+        <v>3</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="57">
+        <v>3</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="57">
+        <v>2</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="56"/>
+      <c r="B38" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="57">
+        <v>2</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39">
+        <f>SUM(D31:D39)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45">
+        <f>SUM(D41:E41)</f>
+        <v>22.5</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>4</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="55">
+        <v>4</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="57">
+        <v>4</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="57">
+        <v>4</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="57">
+        <v>3</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="57">
+        <v>2</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="57">
+        <v>2</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="57">
+        <v>3</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="56"/>
+      <c r="B52" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39">
+        <f>SUM(D45:D52)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45">
+        <f>SUM(D54:E54)</f>
+        <v>24.5</v>
+      </c>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Uni_Results/GPA.xlsx
+++ b/Uni_Results/GPA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t xml:space="preserve">Semester </t>
   </si>
@@ -282,12 +282,6 @@
   </si>
   <si>
     <t>Linear Algebra</t>
-  </si>
-  <si>
-    <t>EN2560</t>
-  </si>
-  <si>
-    <t>Internet of Things Design and Competition</t>
   </si>
   <si>
     <t>EN2550</t>
@@ -1088,10 +1082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1997,7 +1994,7 @@
       <c r="G42" s="46"/>
       <c r="H42" s="44"/>
       <c r="I42" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J42" s="58"/>
     </row>
@@ -2103,7 +2100,7 @@
         <v>87</v>
       </c>
       <c r="D50" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -2112,7 +2109,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="56"/>
       <c r="B51" s="57" t="s">
         <v>88</v>
@@ -2121,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="D51" s="57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -2130,76 +2127,58 @@
       <c r="I51" s="21"/>
       <c r="J51" s="24"/>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="57">
-        <v>2.5</v>
-      </c>
-      <c r="E52" s="22"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="F52" s="22"/>
       <c r="G52" s="23"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39">
-        <f>SUM(D45:D52)</f>
-        <v>24.5</v>
-      </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="43" t="s">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39">
+        <f>SUM(D45:D51)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45">
-        <f>SUM(D54:E54)</f>
-        <v>24.5</v>
-      </c>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="J55" s="58"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45">
+        <f>SUM(D53:E53)</f>
+        <v>22.5</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" s="58"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>